--- a/Bill of Materials/core-bom-v1-131006.xlsx
+++ b/Bill of Materials/core-bom-v1-131006.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="4" r:id="rId1"/>
     <sheet name="BOM Change History" sheetId="3" r:id="rId2"/>
+    <sheet name="Assembly Diagram" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1018,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1133,6 +1134,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1806,12 +1813,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,6 +1821,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="389">
@@ -2218,6 +2225,87 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="0"/>
+          <a:ext cx="7772400" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2542,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -2584,7 +2672,7 @@
       <c r="C3" s="61"/>
       <c r="D3" s="56">
         <f ca="1">TODAY()</f>
-        <v>41553</v>
+        <v>41554</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -2649,14 +2737,14 @@
       <c r="D7" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11">
@@ -3857,14 +3945,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="71" customFormat="1" ht="30">
-      <c r="B56" s="69">
+    <row r="56" spans="2:11" s="69" customFormat="1" ht="30">
+      <c r="B56" s="67">
         <v>1</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="68" t="s">
         <v>279</v>
       </c>
       <c r="E56" s="27" t="s">
@@ -4004,48 +4092,48 @@
       <c r="L9" s="33"/>
     </row>
     <row r="10" spans="2:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:13" s="39" customFormat="1" ht="15">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="71" t="s">
         <v>173</v>
       </c>
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="2:13" s="39" customFormat="1" ht="15">
-      <c r="B12" s="68"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="38" t="s">
         <v>174</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="L12" s="40"/>
     </row>
     <row r="13" spans="2:13" s="43" customFormat="1" ht="15">
@@ -4767,4 +4855,36 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="77" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>